--- a/biology/Botanique/Aster_alpin/Aster_alpin.xlsx
+++ b/biology/Botanique/Aster_alpin/Aster_alpin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aster alpinus
 L'Aster des Alpes ou Reine-marguerite des Alpes (Aster alpinus) est une espèce de plantes à fleurs de la famille des Asteraceae et du genre Aster.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées vivaces hautes de 5 à 25 cm dont les tiges dressées portent un seul capitule vivement coloré.
 </t>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aster alpinus apprécie le soleil sur des pelouses caillouteuses sèches ou dans des bois clairs. Elle peut approcher l'altitude de 3 000 m[1]. Elle fleurit de juin à septembre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aster alpinus apprécie le soleil sur des pelouses caillouteuses sèches ou dans des bois clairs. Elle peut approcher l'altitude de 3 000 m. Elle fleurit de juin à septembre.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, cette espèce est protégée en région Franche-Comté (Article 1).
 </t>
@@ -605,7 +623,9 @@
           <t>Espèce proche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Aster pyrenaeus, endémique des Pyrénées, assez rare.
 </t>
@@ -636,7 +656,9 @@
           <t>Sous-espèce</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Aster alpinus subsp. cebennensis (Braun-Blanq.) Braun-Blanq., 1952. L'Aster des Cévennes ou Aster des Causses, endémique des pelouses calcaires des Grands Causses dans le sud du Massif central.</t>
         </is>
